--- a/건설/통장내역 (농협) 다성이앤씨.xlsx
+++ b/건설/통장내역 (농협) 다성이앤씨.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47833920-A405-47E6-BC63-EDA05A7D0F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="농협통장내역" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -277,7 +276,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
   </numFmts>
@@ -658,30 +657,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O668"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.09765625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.19921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.8984375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="13.19921875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="11" customWidth="1"/>
     <col min="7" max="7" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.09765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.19921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.25" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="14" width="9" style="7"/>
-    <col min="15" max="15" width="14.8984375" style="9" customWidth="1"/>
+    <col min="15" max="15" width="14.875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>2</v>
@@ -716,7 +715,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>45258</v>
@@ -745,7 +744,7 @@
         <v>48750000</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6">
         <v>45260</v>
@@ -779,7 +778,7 @@
         <v>7250000</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3">
         <v>45260</v>
@@ -809,7 +808,7 @@
         <v>6550000</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6">
         <v>45260</v>
@@ -843,7 +842,7 @@
         <v>3470000</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3">
         <v>45260</v>
@@ -875,7 +874,7 @@
         <v>1050000</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="6">
         <v>45260</v>
@@ -907,7 +906,7 @@
         <v>874000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3">
         <v>45260</v>
@@ -939,7 +938,7 @@
         <v>434000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="6">
         <v>45262</v>
@@ -973,7 +972,7 @@
         <v>269000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>45265</v>
@@ -1003,7 +1002,7 @@
         <v>17069000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <v>45265</v>
@@ -1033,7 +1032,7 @@
         <v>33069000</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="6">
         <v>45265</v>
@@ -1063,7 +1062,7 @@
         <v>28069000</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6">
         <v>45265</v>
@@ -1093,7 +1092,7 @@
         <v>24569000</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="6">
         <v>45265</v>
@@ -1123,7 +1122,7 @@
         <v>24454400</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="6">
         <v>45265</v>
@@ -1151,7 +1150,7 @@
         <v>23454400</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="6">
         <v>45265</v>
@@ -1181,7 +1180,7 @@
         <v>20482140</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="6">
         <v>45265</v>
@@ -1209,7 +1208,7 @@
         <v>19382140</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="6">
         <v>45265</v>
@@ -1237,7 +1236,7 @@
         <v>15982140</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <v>45265</v>
@@ -1265,7 +1264,7 @@
         <v>14982140</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="6">
         <v>45265</v>
@@ -1293,7 +1292,7 @@
         <v>11982140</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6">
         <v>45265</v>
@@ -1321,7 +1320,7 @@
         <v>10882140</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="6">
         <v>45265</v>
@@ -1349,7 +1348,7 @@
         <v>6207140</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="6">
         <v>45265</v>
@@ -1377,7 +1376,7 @@
         <v>4213940</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="6">
         <v>45265</v>
@@ -1405,7 +1404,7 @@
         <v>1952740</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <v>45265</v>
@@ -1439,7 +1438,7 @@
         <v>1688740</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="6">
         <v>45265</v>
@@ -1473,7 +1472,7 @@
         <v>1468740</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6">
         <v>45265</v>
@@ -1507,7 +1506,7 @@
         <v>1160740</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="6">
         <v>45265</v>
@@ -1539,11 +1538,11 @@
       <c r="M28" s="1"/>
       <c r="N28" s="2"/>
       <c r="O28" s="10">
-        <f t="shared" si="0"/>
+        <f>IF(AND(ISNUMBER(E28), ISNUMBER(F28), ISNUMBER(O27)), IF(ROW()=2, IF(E28="", 0, E28)-IF(F28="", 0, F28), O27+IF(E28="", 0,E28)-IF(F28="", 0, F28)), "")</f>
         <v>1050740</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="5"/>
@@ -1563,7 +1562,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="2"/>
@@ -1583,7 +1582,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="5"/>
@@ -1603,7 +1602,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="2"/>
@@ -1623,7 +1622,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="5"/>
@@ -1643,7 +1642,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="2"/>
@@ -1663,7 +1662,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="5"/>
@@ -1683,7 +1682,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="2"/>
@@ -1703,7 +1702,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="5"/>
@@ -1723,7 +1722,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="2"/>
@@ -1743,7 +1742,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="5"/>
@@ -1763,7 +1762,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="2"/>
@@ -1783,7 +1782,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="5"/>
@@ -1803,7 +1802,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="2"/>
@@ -1823,7 +1822,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="5"/>
@@ -1843,7 +1842,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="2"/>
@@ -1863,7 +1862,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="5"/>
@@ -1883,7 +1882,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="2"/>
@@ -1903,7 +1902,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="5"/>
@@ -1923,7 +1922,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="2"/>
@@ -1943,7 +1942,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="5"/>
@@ -1963,7 +1962,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="2"/>
@@ -1983,7 +1982,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="5"/>
@@ -2003,7 +2002,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="2"/>
@@ -2023,7 +2022,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="5"/>
@@ -2043,7 +2042,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" s="2"/>
@@ -2063,7 +2062,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="5"/>
@@ -2083,7 +2082,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" s="2"/>
@@ -2103,7 +2102,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="6"/>
       <c r="C57" s="5"/>
@@ -2123,7 +2122,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58" s="2"/>
@@ -2143,7 +2142,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
       <c r="C59" s="5"/>
@@ -2163,7 +2162,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="2"/>
@@ -2183,7 +2182,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="6"/>
       <c r="C61" s="5"/>
@@ -2203,7 +2202,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="3"/>
       <c r="C62" s="2"/>
@@ -2223,7 +2222,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="6"/>
       <c r="C63" s="5"/>
@@ -2243,7 +2242,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
       <c r="C64" s="2"/>
@@ -2263,7 +2262,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="6"/>
       <c r="C65" s="5"/>
@@ -2283,7 +2282,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="C66" s="2"/>
@@ -2303,7 +2302,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
       <c r="C67" s="5"/>
@@ -2323,7 +2322,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="C68" s="2"/>
@@ -2343,7 +2342,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="5"/>
@@ -2363,7 +2362,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
       <c r="C70" s="2"/>
@@ -2383,7 +2382,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="5"/>
@@ -2403,7 +2402,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="3"/>
       <c r="C72" s="2"/>
@@ -2423,7 +2422,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="6"/>
       <c r="C73" s="5"/>
@@ -2443,7 +2442,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="3"/>
       <c r="C74" s="2"/>
@@ -2463,7 +2462,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="6"/>
       <c r="C75" s="5"/>
@@ -2483,7 +2482,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="2"/>
@@ -2503,7 +2502,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
       <c r="B77" s="6"/>
       <c r="C77" s="5"/>
@@ -2523,7 +2522,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="3"/>
       <c r="C78" s="2"/>
@@ -2543,7 +2542,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="6"/>
       <c r="C79" s="5"/>
@@ -2563,7 +2562,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="3"/>
       <c r="C80" s="2"/>
@@ -2583,7 +2582,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="6"/>
       <c r="C81" s="5"/>
@@ -2603,7 +2602,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
@@ -2623,7 +2622,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
       <c r="B83" s="6"/>
       <c r="C83" s="5"/>
@@ -2643,7 +2642,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="3"/>
       <c r="C84" s="2"/>
@@ -2663,7 +2662,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
       <c r="B85" s="6"/>
       <c r="C85" s="5"/>
@@ -2683,7 +2682,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="3"/>
       <c r="C86" s="2"/>
@@ -2703,7 +2702,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
       <c r="B87" s="6"/>
       <c r="C87" s="5"/>
@@ -2723,7 +2722,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="3"/>
       <c r="C88" s="2"/>
@@ -2743,7 +2742,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="6"/>
       <c r="C89" s="5"/>
@@ -2763,7 +2762,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="3"/>
       <c r="C90" s="2"/>
@@ -2783,7 +2782,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
       <c r="C91" s="5"/>
@@ -2803,7 +2802,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="3"/>
       <c r="C92" s="2"/>
@@ -2823,7 +2822,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="B93" s="6"/>
       <c r="C93" s="5"/>
@@ -2843,7 +2842,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="3"/>
       <c r="C94" s="2"/>
@@ -2863,7 +2862,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="6"/>
       <c r="C95" s="5"/>
@@ -2883,7 +2882,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
@@ -2903,7 +2902,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
       <c r="C97" s="5"/>
@@ -2923,7 +2922,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="3"/>
       <c r="C98" s="2"/>
@@ -2943,7 +2942,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="6"/>
       <c r="C99" s="5"/>
@@ -2963,7 +2962,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
@@ -2983,7 +2982,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
       <c r="B101" s="6"/>
       <c r="C101" s="5"/>
@@ -3003,7 +3002,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="3"/>
       <c r="C102" s="2"/>
@@ -3023,7 +3022,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
       <c r="B103" s="6"/>
       <c r="C103" s="5"/>
@@ -3043,7 +3042,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="3"/>
       <c r="C104" s="2"/>
@@ -3063,7 +3062,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
       <c r="B105" s="6"/>
       <c r="C105" s="5"/>
@@ -3083,7 +3082,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="3"/>
       <c r="C106" s="2"/>
@@ -3103,7 +3102,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="B107" s="6"/>
       <c r="C107" s="5"/>
@@ -3123,7 +3122,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="3"/>
       <c r="C108" s="2"/>
@@ -3143,7 +3142,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
       <c r="B109" s="6"/>
       <c r="C109" s="5"/>
@@ -3163,7 +3162,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="3"/>
       <c r="C110" s="2"/>
@@ -3183,7 +3182,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
       <c r="B111" s="6"/>
       <c r="C111" s="5"/>
@@ -3203,7 +3202,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="3"/>
       <c r="C112" s="2"/>
@@ -3223,7 +3222,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
       <c r="B113" s="6"/>
       <c r="C113" s="5"/>
@@ -3243,7 +3242,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="3"/>
       <c r="C114" s="2"/>
@@ -3263,7 +3262,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
       <c r="B115" s="6"/>
       <c r="C115" s="5"/>
@@ -3283,7 +3282,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="3"/>
       <c r="C116" s="2"/>
@@ -3303,7 +3302,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
       <c r="B117" s="6"/>
       <c r="C117" s="5"/>
@@ -3323,7 +3322,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="3"/>
       <c r="C118" s="2"/>
@@ -3343,7 +3342,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
       <c r="B119" s="6"/>
       <c r="C119" s="5"/>
@@ -3363,7 +3362,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="3"/>
       <c r="C120" s="2"/>
@@ -3383,7 +3382,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
       <c r="B121" s="6"/>
       <c r="C121" s="5"/>
@@ -3403,7 +3402,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="3"/>
       <c r="C122" s="2"/>
@@ -3423,7 +3422,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
       <c r="B123" s="6"/>
       <c r="C123" s="5"/>
@@ -3443,7 +3442,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="3"/>
       <c r="C124" s="2"/>
@@ -3463,7 +3462,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="6"/>
       <c r="C125" s="5"/>
@@ -3483,7 +3482,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="3"/>
       <c r="C126" s="2"/>
@@ -3503,7 +3502,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="B127" s="6"/>
       <c r="C127" s="5"/>
@@ -3523,7 +3522,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="3"/>
       <c r="C128" s="2"/>
@@ -3543,7 +3542,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="6"/>
       <c r="C129" s="5"/>
@@ -3563,7 +3562,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="3"/>
       <c r="C130" s="2"/>
@@ -3583,7 +3582,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="6"/>
       <c r="C131" s="5"/>
@@ -3603,7 +3602,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="3"/>
       <c r="C132" s="2"/>
@@ -3623,7 +3622,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
       <c r="B133" s="6"/>
       <c r="C133" s="5"/>
@@ -3643,7 +3642,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="3"/>
       <c r="C134" s="2"/>
@@ -3663,7 +3662,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="6"/>
       <c r="C135" s="5"/>
@@ -3683,7 +3682,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="3"/>
       <c r="C136" s="2"/>
@@ -3703,7 +3702,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="6"/>
       <c r="C137" s="5"/>
@@ -3723,7 +3722,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="3"/>
       <c r="C138" s="2"/>
@@ -3743,7 +3742,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
       <c r="B139" s="6"/>
       <c r="C139" s="5"/>
@@ -3763,7 +3762,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="3"/>
       <c r="C140" s="2"/>
@@ -3783,7 +3782,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="B141" s="6"/>
       <c r="C141" s="5"/>
@@ -3803,7 +3802,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="3"/>
       <c r="C142" s="2"/>
@@ -3823,7 +3822,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="6"/>
       <c r="C143" s="5"/>
@@ -3843,7 +3842,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="3"/>
       <c r="C144" s="2"/>
@@ -3863,7 +3862,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="B145" s="6"/>
       <c r="C145" s="5"/>
@@ -3883,7 +3882,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="3"/>
       <c r="C146" s="2"/>
@@ -3903,7 +3902,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
       <c r="B147" s="6"/>
       <c r="C147" s="5"/>
@@ -3923,7 +3922,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="3"/>
       <c r="C148" s="2"/>
@@ -3943,7 +3942,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
       <c r="B149" s="6"/>
       <c r="C149" s="5"/>
@@ -3963,7 +3962,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="3"/>
       <c r="C150" s="2"/>
@@ -3983,7 +3982,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="6"/>
       <c r="C151" s="5"/>
@@ -4003,7 +4002,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="3"/>
       <c r="C152" s="2"/>
@@ -4023,7 +4022,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
       <c r="B153" s="6"/>
       <c r="C153" s="5"/>
@@ -4043,7 +4042,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="3"/>
       <c r="C154" s="2"/>
@@ -4063,7 +4062,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
       <c r="B155" s="6"/>
       <c r="C155" s="5"/>
@@ -4083,7 +4082,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="3"/>
       <c r="C156" s="2"/>
@@ -4103,7 +4102,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
       <c r="B157" s="6"/>
       <c r="C157" s="5"/>
@@ -4123,7 +4122,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="3"/>
       <c r="C158" s="2"/>
@@ -4143,7 +4142,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
       <c r="B159" s="6"/>
       <c r="C159" s="5"/>
@@ -4163,7 +4162,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="3"/>
       <c r="C160" s="2"/>
@@ -4183,7 +4182,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
       <c r="B161" s="6"/>
       <c r="C161" s="5"/>
@@ -4203,7 +4202,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="3"/>
       <c r="C162" s="2"/>
@@ -4223,7 +4222,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
       <c r="B163" s="6"/>
       <c r="C163" s="5"/>
@@ -4243,7 +4242,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="3"/>
       <c r="C164" s="2"/>
@@ -4263,7 +4262,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
       <c r="B165" s="6"/>
       <c r="C165" s="5"/>
@@ -4283,7 +4282,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="3"/>
       <c r="C166" s="2"/>
@@ -4303,7 +4302,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="5"/>
       <c r="B167" s="6"/>
       <c r="C167" s="5"/>
@@ -4323,7 +4322,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="3"/>
       <c r="C168" s="2"/>
@@ -4343,7 +4342,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="5"/>
       <c r="B169" s="6"/>
       <c r="C169" s="5"/>
@@ -4363,7 +4362,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="3"/>
       <c r="C170" s="2"/>
@@ -4383,7 +4382,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="B171" s="6"/>
       <c r="C171" s="5"/>
@@ -4403,7 +4402,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="3"/>
       <c r="C172" s="2"/>
@@ -4423,7 +4422,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="5"/>
       <c r="B173" s="6"/>
       <c r="C173" s="5"/>
@@ -4443,7 +4442,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="3"/>
       <c r="C174" s="2"/>
@@ -4463,7 +4462,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
       <c r="B175" s="6"/>
       <c r="C175" s="5"/>
@@ -4483,7 +4482,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="3"/>
       <c r="C176" s="2"/>
@@ -4503,7 +4502,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
       <c r="B177" s="6"/>
       <c r="C177" s="5"/>
@@ -4523,7 +4522,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="3"/>
       <c r="C178" s="2"/>
@@ -4543,7 +4542,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
       <c r="B179" s="6"/>
       <c r="C179" s="5"/>
@@ -4563,7 +4562,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="3"/>
       <c r="C180" s="2"/>
@@ -4583,7 +4582,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" s="5"/>
       <c r="B181" s="6"/>
       <c r="C181" s="5"/>
@@ -4603,7 +4602,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="3"/>
       <c r="C182" s="2"/>
@@ -4623,7 +4622,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" s="5"/>
       <c r="B183" s="6"/>
       <c r="C183" s="5"/>
@@ -4643,7 +4642,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="3"/>
       <c r="C184" s="2"/>
@@ -4663,7 +4662,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" s="5"/>
       <c r="B185" s="6"/>
       <c r="C185" s="5"/>
@@ -4683,7 +4682,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="3"/>
       <c r="C186" s="2"/>
@@ -4703,7 +4702,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" s="5"/>
       <c r="B187" s="6"/>
       <c r="C187" s="5"/>
@@ -4723,7 +4722,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="3"/>
       <c r="C188" s="2"/>
@@ -4743,7 +4742,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" s="5"/>
       <c r="B189" s="6"/>
       <c r="C189" s="5"/>
@@ -4763,7 +4762,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="3"/>
       <c r="C190" s="2"/>
@@ -4783,7 +4782,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" s="5"/>
       <c r="B191" s="6"/>
       <c r="C191" s="5"/>
@@ -4803,7 +4802,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="3"/>
       <c r="C192" s="2"/>
@@ -4823,7 +4822,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" s="5"/>
       <c r="B193" s="6"/>
       <c r="C193" s="5"/>
@@ -4843,7 +4842,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="3"/>
       <c r="C194" s="2"/>
@@ -4863,7 +4862,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" s="5"/>
       <c r="B195" s="6"/>
       <c r="C195" s="5"/>
@@ -4883,7 +4882,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="3"/>
       <c r="C196" s="2"/>
@@ -4903,7 +4902,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" s="5"/>
       <c r="B197" s="6"/>
       <c r="C197" s="5"/>
@@ -4923,7 +4922,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="3"/>
       <c r="C198" s="2"/>
@@ -4943,7 +4942,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" s="5"/>
       <c r="B199" s="6"/>
       <c r="C199" s="5"/>
@@ -4963,7 +4962,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="3"/>
       <c r="C200" s="2"/>
@@ -4983,7 +4982,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" s="5"/>
       <c r="B201" s="6"/>
       <c r="C201" s="5"/>
@@ -5003,7 +5002,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
       <c r="B202" s="3"/>
       <c r="C202" s="2"/>
@@ -5023,7 +5022,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" s="5"/>
       <c r="B203" s="6"/>
       <c r="C203" s="5"/>
@@ -5043,7 +5042,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
       <c r="B204" s="3"/>
       <c r="C204" s="2"/>
@@ -5063,7 +5062,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" s="5"/>
       <c r="B205" s="6"/>
       <c r="C205" s="5"/>
@@ -5083,7 +5082,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
       <c r="B206" s="3"/>
       <c r="C206" s="2"/>
@@ -5103,7 +5102,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" s="5"/>
       <c r="B207" s="6"/>
       <c r="C207" s="5"/>
@@ -5123,7 +5122,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
       <c r="B208" s="3"/>
       <c r="C208" s="2"/>
@@ -5143,7 +5142,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" s="5"/>
       <c r="B209" s="6"/>
       <c r="C209" s="5"/>
@@ -5163,7 +5162,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
       <c r="B210" s="3"/>
       <c r="C210" s="2"/>
@@ -5183,7 +5182,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" s="5"/>
       <c r="B211" s="6"/>
       <c r="C211" s="5"/>
@@ -5203,7 +5202,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
       <c r="B212" s="3"/>
       <c r="C212" s="2"/>
@@ -5223,7 +5222,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" s="5"/>
       <c r="B213" s="6"/>
       <c r="C213" s="5"/>
@@ -5243,7 +5242,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
       <c r="B214" s="3"/>
       <c r="C214" s="2"/>
@@ -5263,7 +5262,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" s="5"/>
       <c r="B215" s="6"/>
       <c r="C215" s="5"/>
@@ -5283,7 +5282,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
       <c r="B216" s="3"/>
       <c r="C216" s="2"/>
@@ -5303,7 +5302,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" s="5"/>
       <c r="B217" s="6"/>
       <c r="C217" s="5"/>
@@ -5323,7 +5322,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
       <c r="B218" s="3"/>
       <c r="C218" s="2"/>
@@ -5343,7 +5342,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" s="5"/>
       <c r="B219" s="6"/>
       <c r="C219" s="5"/>
@@ -5363,7 +5362,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
       <c r="B220" s="3"/>
       <c r="C220" s="2"/>
@@ -5383,7 +5382,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" s="5"/>
       <c r="B221" s="6"/>
       <c r="C221" s="5"/>
@@ -5403,7 +5402,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
       <c r="B222" s="3"/>
       <c r="C222" s="2"/>
@@ -5423,7 +5422,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" s="5"/>
       <c r="B223" s="6"/>
       <c r="C223" s="5"/>
@@ -5443,7 +5442,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
       <c r="B224" s="3"/>
       <c r="C224" s="2"/>
@@ -5463,7 +5462,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" s="5"/>
       <c r="B225" s="6"/>
       <c r="C225" s="5"/>
@@ -5483,7 +5482,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
       <c r="B226" s="3"/>
       <c r="C226" s="2"/>
@@ -5503,7 +5502,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" s="5"/>
       <c r="B227" s="6"/>
       <c r="C227" s="5"/>
@@ -5523,7 +5522,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
       <c r="B228" s="3"/>
       <c r="C228" s="2"/>
@@ -5543,7 +5542,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" s="5"/>
       <c r="B229" s="6"/>
       <c r="C229" s="5"/>
@@ -5563,7 +5562,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
       <c r="B230" s="3"/>
       <c r="C230" s="2"/>
@@ -5583,7 +5582,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" s="5"/>
       <c r="B231" s="6"/>
       <c r="C231" s="5"/>
@@ -5603,7 +5602,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" s="2"/>
       <c r="B232" s="3"/>
       <c r="C232" s="2"/>
@@ -5623,7 +5622,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" s="5"/>
       <c r="B233" s="6"/>
       <c r="C233" s="5"/>
@@ -5643,7 +5642,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" s="2"/>
       <c r="B234" s="3"/>
       <c r="C234" s="2"/>
@@ -5663,7 +5662,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" s="5"/>
       <c r="B235" s="6"/>
       <c r="C235" s="5"/>
@@ -5683,7 +5682,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
       <c r="B236" s="3"/>
       <c r="C236" s="2"/>
@@ -5703,7 +5702,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" s="5"/>
       <c r="B237" s="6"/>
       <c r="C237" s="5"/>
@@ -5723,7 +5722,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
       <c r="B238" s="3"/>
       <c r="C238" s="2"/>
@@ -5743,7 +5742,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" s="5"/>
       <c r="B239" s="6"/>
       <c r="C239" s="5"/>
@@ -5763,7 +5762,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" s="2"/>
       <c r="B240" s="3"/>
       <c r="C240" s="2"/>
@@ -5783,7 +5782,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241" s="5"/>
       <c r="B241" s="6"/>
       <c r="C241" s="5"/>
@@ -5803,7 +5802,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242" s="2"/>
       <c r="B242" s="3"/>
       <c r="C242" s="2"/>
@@ -5823,7 +5822,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" s="5"/>
       <c r="B243" s="6"/>
       <c r="C243" s="5"/>
@@ -5843,7 +5842,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" s="2"/>
       <c r="B244" s="3"/>
       <c r="C244" s="2"/>
@@ -5863,7 +5862,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245" s="5"/>
       <c r="B245" s="6"/>
       <c r="C245" s="5"/>
@@ -5883,7 +5882,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246" s="2"/>
       <c r="B246" s="3"/>
       <c r="C246" s="2"/>
@@ -5903,7 +5902,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247" s="5"/>
       <c r="B247" s="6"/>
       <c r="C247" s="5"/>
@@ -5923,7 +5922,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248" s="2"/>
       <c r="B248" s="3"/>
       <c r="C248" s="2"/>
@@ -5943,7 +5942,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249" s="5"/>
       <c r="B249" s="6"/>
       <c r="C249" s="5"/>
@@ -5963,7 +5962,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250" s="2"/>
       <c r="B250" s="3"/>
       <c r="C250" s="2"/>
@@ -5983,7 +5982,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251" s="5"/>
       <c r="B251" s="6"/>
       <c r="C251" s="5"/>
@@ -6003,7 +6002,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252" s="2"/>
       <c r="B252" s="3"/>
       <c r="C252" s="2"/>
@@ -6023,7 +6022,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253" s="5"/>
       <c r="B253" s="6"/>
       <c r="C253" s="5"/>
@@ -6043,7 +6042,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254" s="2"/>
       <c r="B254" s="3"/>
       <c r="C254" s="2"/>
@@ -6063,7 +6062,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255" s="5"/>
       <c r="B255" s="6"/>
       <c r="C255" s="5"/>
@@ -6083,7 +6082,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256" s="2"/>
       <c r="B256" s="3"/>
       <c r="C256" s="2"/>
@@ -6103,7 +6102,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" s="5"/>
       <c r="B257" s="6"/>
       <c r="C257" s="5"/>
@@ -6123,7 +6122,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" s="2"/>
       <c r="B258" s="3"/>
       <c r="C258" s="2"/>
@@ -6143,7 +6142,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" s="5"/>
       <c r="B259" s="6"/>
       <c r="C259" s="5"/>
@@ -6163,7 +6162,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" s="2"/>
       <c r="B260" s="3"/>
       <c r="C260" s="2"/>
@@ -6183,7 +6182,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" s="5"/>
       <c r="B261" s="6"/>
       <c r="C261" s="5"/>
@@ -6203,7 +6202,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" s="2"/>
       <c r="B262" s="3"/>
       <c r="C262" s="2"/>
@@ -6223,7 +6222,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" s="5"/>
       <c r="B263" s="6"/>
       <c r="C263" s="5"/>
@@ -6243,7 +6242,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" s="2"/>
       <c r="B264" s="3"/>
       <c r="C264" s="2"/>
@@ -6263,7 +6262,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" s="5"/>
       <c r="B265" s="6"/>
       <c r="C265" s="5"/>
@@ -6283,7 +6282,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" s="2"/>
       <c r="B266" s="3"/>
       <c r="C266" s="2"/>
@@ -6303,7 +6302,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" s="5"/>
       <c r="B267" s="6"/>
       <c r="C267" s="5"/>
@@ -6323,7 +6322,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" s="2"/>
       <c r="B268" s="3"/>
       <c r="C268" s="2"/>
@@ -6343,7 +6342,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" s="5"/>
       <c r="B269" s="6"/>
       <c r="C269" s="5"/>
@@ -6363,7 +6362,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" s="2"/>
       <c r="B270" s="3"/>
       <c r="C270" s="2"/>
@@ -6383,7 +6382,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" s="5"/>
       <c r="B271" s="6"/>
       <c r="C271" s="5"/>
@@ -6403,7 +6402,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" s="2"/>
       <c r="B272" s="3"/>
       <c r="C272" s="2"/>
@@ -6423,7 +6422,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273" s="5"/>
       <c r="B273" s="6"/>
       <c r="C273" s="5"/>
@@ -6443,7 +6442,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" s="2"/>
       <c r="B274" s="3"/>
       <c r="C274" s="2"/>
@@ -6463,7 +6462,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275" s="5"/>
       <c r="B275" s="6"/>
       <c r="C275" s="5"/>
@@ -6483,7 +6482,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" s="2"/>
       <c r="B276" s="3"/>
       <c r="C276" s="2"/>
@@ -6503,7 +6502,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" s="5"/>
       <c r="B277" s="6"/>
       <c r="C277" s="5"/>
@@ -6523,7 +6522,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278" s="2"/>
       <c r="B278" s="3"/>
       <c r="C278" s="2"/>
@@ -6543,7 +6542,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279" s="5"/>
       <c r="B279" s="6"/>
       <c r="C279" s="5"/>
@@ -6563,7 +6562,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" s="2"/>
       <c r="B280" s="3"/>
       <c r="C280" s="2"/>
@@ -6583,7 +6582,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" s="5"/>
       <c r="B281" s="6"/>
       <c r="C281" s="5"/>
@@ -6603,7 +6602,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282" s="2"/>
       <c r="B282" s="3"/>
       <c r="C282" s="2"/>
@@ -6623,7 +6622,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" s="5"/>
       <c r="B283" s="6"/>
       <c r="C283" s="5"/>
@@ -6643,7 +6642,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" s="2"/>
       <c r="B284" s="3"/>
       <c r="C284" s="2"/>
@@ -6663,7 +6662,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" s="5"/>
       <c r="B285" s="6"/>
       <c r="C285" s="5"/>
@@ -6683,7 +6682,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" s="2"/>
       <c r="B286" s="3"/>
       <c r="C286" s="2"/>
@@ -6703,7 +6702,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287" s="5"/>
       <c r="B287" s="6"/>
       <c r="C287" s="5"/>
@@ -6723,7 +6722,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288" s="2"/>
       <c r="B288" s="3"/>
       <c r="C288" s="2"/>
@@ -6743,7 +6742,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289" s="5"/>
       <c r="B289" s="6"/>
       <c r="C289" s="5"/>
@@ -6763,7 +6762,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290" s="2"/>
       <c r="B290" s="3"/>
       <c r="C290" s="2"/>
@@ -6783,7 +6782,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291" s="5"/>
       <c r="B291" s="6"/>
       <c r="C291" s="5"/>
@@ -6803,7 +6802,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292" s="2"/>
       <c r="B292" s="3"/>
       <c r="C292" s="2"/>
@@ -6823,7 +6822,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293" s="5"/>
       <c r="B293" s="6"/>
       <c r="C293" s="5"/>
@@ -6843,7 +6842,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294" s="2"/>
       <c r="B294" s="3"/>
       <c r="C294" s="2"/>
@@ -6863,7 +6862,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295" s="5"/>
       <c r="B295" s="6"/>
       <c r="C295" s="5"/>
@@ -6883,7 +6882,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296" s="2"/>
       <c r="B296" s="3"/>
       <c r="C296" s="2"/>
@@ -6903,7 +6902,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297" s="5"/>
       <c r="B297" s="6"/>
       <c r="C297" s="5"/>
@@ -6923,7 +6922,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298" s="2"/>
       <c r="B298" s="3"/>
       <c r="C298" s="2"/>
@@ -6943,7 +6942,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299" s="5"/>
       <c r="B299" s="6"/>
       <c r="C299" s="5"/>
@@ -6963,7 +6962,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300" s="2"/>
       <c r="B300" s="3"/>
       <c r="C300" s="2"/>
@@ -6983,7 +6982,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301" s="5"/>
       <c r="B301" s="6"/>
       <c r="C301" s="5"/>
@@ -7003,7 +7002,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302" s="2"/>
       <c r="B302" s="3"/>
       <c r="C302" s="2"/>
@@ -7023,7 +7022,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303" s="5"/>
       <c r="B303" s="6"/>
       <c r="C303" s="5"/>
@@ -7043,7 +7042,7 @@
         <v/>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304" s="2"/>
       <c r="B304" s="3"/>
       <c r="C304" s="2"/>
@@ -7063,7 +7062,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305" s="5"/>
       <c r="B305" s="6"/>
       <c r="C305" s="5"/>
@@ -7083,7 +7082,7 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306" s="2"/>
       <c r="B306" s="3"/>
       <c r="C306" s="2"/>
@@ -7103,7 +7102,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307" s="5"/>
       <c r="B307" s="6"/>
       <c r="C307" s="5"/>
@@ -7123,7 +7122,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308" s="2"/>
       <c r="B308" s="3"/>
       <c r="C308" s="2"/>
@@ -7143,7 +7142,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309" s="5"/>
       <c r="B309" s="6"/>
       <c r="C309" s="5"/>
@@ -7163,7 +7162,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310" s="2"/>
       <c r="B310" s="3"/>
       <c r="C310" s="2"/>
@@ -7183,7 +7182,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311" s="5"/>
       <c r="B311" s="6"/>
       <c r="C311" s="5"/>
@@ -7203,7 +7202,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312" s="2"/>
       <c r="B312" s="3"/>
       <c r="C312" s="2"/>
@@ -7223,7 +7222,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313" s="5"/>
       <c r="B313" s="6"/>
       <c r="C313" s="5"/>
@@ -7243,7 +7242,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314" s="2"/>
       <c r="B314" s="3"/>
       <c r="C314" s="2"/>
@@ -7263,7 +7262,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315" s="5"/>
       <c r="B315" s="6"/>
       <c r="C315" s="5"/>
@@ -7283,7 +7282,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316" s="2"/>
       <c r="B316" s="3"/>
       <c r="C316" s="2"/>
@@ -7303,7 +7302,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317" s="5"/>
       <c r="B317" s="6"/>
       <c r="C317" s="5"/>
@@ -7323,7 +7322,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318" s="2"/>
       <c r="B318" s="3"/>
       <c r="C318" s="2"/>
@@ -7343,7 +7342,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319" s="5"/>
       <c r="B319" s="6"/>
       <c r="C319" s="5"/>
@@ -7363,7 +7362,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320" s="2"/>
       <c r="B320" s="3"/>
       <c r="C320" s="2"/>
@@ -7383,7 +7382,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321" s="5"/>
       <c r="B321" s="6"/>
       <c r="C321" s="5"/>
@@ -7403,7 +7402,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322" s="2"/>
       <c r="B322" s="3"/>
       <c r="C322" s="2"/>
@@ -7423,7 +7422,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323" s="5"/>
       <c r="B323" s="6"/>
       <c r="C323" s="5"/>
@@ -7443,7 +7442,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324" s="2"/>
       <c r="B324" s="3"/>
       <c r="C324" s="2"/>
@@ -7463,7 +7462,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325" s="5"/>
       <c r="B325" s="6"/>
       <c r="C325" s="5"/>
@@ -7483,7 +7482,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326" s="2"/>
       <c r="B326" s="3"/>
       <c r="C326" s="2"/>
@@ -7503,7 +7502,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327" s="5"/>
       <c r="B327" s="6"/>
       <c r="C327" s="5"/>
@@ -7523,7 +7522,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328" s="2"/>
       <c r="B328" s="3"/>
       <c r="C328" s="2"/>
@@ -7543,7 +7542,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329" s="5"/>
       <c r="B329" s="6"/>
       <c r="C329" s="5"/>
@@ -7563,7 +7562,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330" s="2"/>
       <c r="B330" s="3"/>
       <c r="C330" s="2"/>
@@ -7583,7 +7582,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331" s="5"/>
       <c r="B331" s="6"/>
       <c r="C331" s="5"/>
@@ -7603,7 +7602,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332" s="2"/>
       <c r="B332" s="3"/>
       <c r="C332" s="2"/>
@@ -7623,7 +7622,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333" s="5"/>
       <c r="B333" s="6"/>
       <c r="C333" s="5"/>
@@ -7643,7 +7642,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334" s="2"/>
       <c r="B334" s="3"/>
       <c r="C334" s="2"/>
@@ -7663,7 +7662,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335" s="5"/>
       <c r="B335" s="6"/>
       <c r="C335" s="5"/>
@@ -7683,7 +7682,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336" s="2"/>
       <c r="B336" s="3"/>
       <c r="C336" s="2"/>
@@ -7703,7 +7702,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337" s="5"/>
       <c r="B337" s="6"/>
       <c r="C337" s="5"/>
@@ -7723,7 +7722,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A338" s="2"/>
       <c r="B338" s="3"/>
       <c r="C338" s="2"/>
@@ -7743,7 +7742,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A339" s="5"/>
       <c r="B339" s="6"/>
       <c r="C339" s="5"/>
@@ -7763,7 +7762,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340" s="2"/>
       <c r="B340" s="3"/>
       <c r="C340" s="2"/>
@@ -7783,7 +7782,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A341" s="5"/>
       <c r="B341" s="6"/>
       <c r="C341" s="5"/>
@@ -7803,7 +7802,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A342" s="2"/>
       <c r="B342" s="3"/>
       <c r="C342" s="2"/>
@@ -7823,7 +7822,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A343" s="5"/>
       <c r="B343" s="6"/>
       <c r="C343" s="5"/>
@@ -7843,7 +7842,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A344" s="2"/>
       <c r="B344" s="3"/>
       <c r="C344" s="2"/>
@@ -7863,7 +7862,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345" s="5"/>
       <c r="B345" s="6"/>
       <c r="C345" s="5"/>
@@ -7883,7 +7882,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A346" s="2"/>
       <c r="B346" s="3"/>
       <c r="C346" s="2"/>
@@ -7903,7 +7902,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A347" s="5"/>
       <c r="B347" s="6"/>
       <c r="C347" s="5"/>
@@ -7923,7 +7922,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348" s="2"/>
       <c r="B348" s="3"/>
       <c r="C348" s="2"/>
@@ -7943,7 +7942,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A349" s="5"/>
       <c r="B349" s="6"/>
       <c r="C349" s="5"/>
@@ -7963,7 +7962,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350" s="2"/>
       <c r="B350" s="3"/>
       <c r="C350" s="2"/>
@@ -7983,7 +7982,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351" s="5"/>
       <c r="B351" s="6"/>
       <c r="C351" s="5"/>
@@ -8003,7 +8002,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A352" s="2"/>
       <c r="B352" s="3"/>
       <c r="C352" s="2"/>
@@ -8023,7 +8022,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A353" s="5"/>
       <c r="B353" s="6"/>
       <c r="C353" s="5"/>
@@ -8043,7 +8042,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A354" s="2"/>
       <c r="B354" s="3"/>
       <c r="C354" s="2"/>
@@ -8063,7 +8062,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A355" s="5"/>
       <c r="B355" s="6"/>
       <c r="C355" s="5"/>
@@ -8083,7 +8082,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A356" s="2"/>
       <c r="B356" s="3"/>
       <c r="C356" s="2"/>
@@ -8103,7 +8102,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A357" s="5"/>
       <c r="B357" s="6"/>
       <c r="C357" s="5"/>
@@ -8123,7 +8122,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A358" s="2"/>
       <c r="B358" s="3"/>
       <c r="C358" s="2"/>
@@ -8143,7 +8142,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A359" s="5"/>
       <c r="B359" s="6"/>
       <c r="C359" s="5"/>
@@ -8163,7 +8162,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A360" s="2"/>
       <c r="B360" s="3"/>
       <c r="C360" s="2"/>
@@ -8183,7 +8182,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A361" s="5"/>
       <c r="B361" s="6"/>
       <c r="C361" s="5"/>
@@ -8203,7 +8202,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A362" s="2"/>
       <c r="B362" s="3"/>
       <c r="C362" s="2"/>
@@ -8223,7 +8222,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A363" s="5"/>
       <c r="B363" s="6"/>
       <c r="C363" s="5"/>
@@ -8243,7 +8242,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A364" s="2"/>
       <c r="B364" s="3"/>
       <c r="C364" s="2"/>
@@ -8263,7 +8262,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A365" s="5"/>
       <c r="B365" s="6"/>
       <c r="C365" s="5"/>
@@ -8283,7 +8282,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A366" s="2"/>
       <c r="B366" s="3"/>
       <c r="C366" s="2"/>
@@ -8303,7 +8302,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A367" s="5"/>
       <c r="B367" s="6"/>
       <c r="C367" s="5"/>
@@ -8323,7 +8322,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A368" s="2"/>
       <c r="B368" s="3"/>
       <c r="C368" s="2"/>
@@ -8343,7 +8342,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A369" s="5"/>
       <c r="B369" s="6"/>
       <c r="C369" s="5"/>
@@ -8363,7 +8362,7 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A370" s="2"/>
       <c r="B370" s="3"/>
       <c r="C370" s="2"/>
@@ -8383,7 +8382,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A371" s="5"/>
       <c r="B371" s="6"/>
       <c r="C371" s="5"/>
@@ -8403,7 +8402,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A372" s="2"/>
       <c r="B372" s="3"/>
       <c r="C372" s="2"/>
@@ -8423,7 +8422,7 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A373" s="5"/>
       <c r="B373" s="6"/>
       <c r="C373" s="5"/>
@@ -8443,7 +8442,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A374" s="2"/>
       <c r="B374" s="3"/>
       <c r="C374" s="2"/>
@@ -8463,7 +8462,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A375" s="5"/>
       <c r="B375" s="6"/>
       <c r="C375" s="5"/>
@@ -8483,7 +8482,7 @@
         <v/>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A376" s="2"/>
       <c r="B376" s="3"/>
       <c r="C376" s="2"/>
@@ -8503,7 +8502,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A377" s="5"/>
       <c r="B377" s="6"/>
       <c r="C377" s="5"/>
@@ -8523,7 +8522,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A378" s="2"/>
       <c r="B378" s="3"/>
       <c r="C378" s="2"/>
@@ -8543,7 +8542,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A379" s="5"/>
       <c r="B379" s="6"/>
       <c r="C379" s="5"/>
@@ -8563,7 +8562,7 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A380" s="2"/>
       <c r="B380" s="3"/>
       <c r="C380" s="2"/>
@@ -8583,7 +8582,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A381" s="5"/>
       <c r="B381" s="6"/>
       <c r="C381" s="5"/>
@@ -8603,7 +8602,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A382" s="2"/>
       <c r="B382" s="3"/>
       <c r="C382" s="2"/>
@@ -8623,7 +8622,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A383" s="5"/>
       <c r="B383" s="6"/>
       <c r="C383" s="5"/>
@@ -8643,7 +8642,7 @@
         <v/>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A384" s="2"/>
       <c r="B384" s="3"/>
       <c r="C384" s="2"/>
@@ -8663,7 +8662,7 @@
         <v/>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A385" s="5"/>
       <c r="B385" s="6"/>
       <c r="C385" s="5"/>
@@ -8683,7 +8682,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A386" s="2"/>
       <c r="B386" s="3"/>
       <c r="C386" s="2"/>
@@ -8703,7 +8702,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A387" s="5"/>
       <c r="B387" s="6"/>
       <c r="C387" s="5"/>
@@ -8723,7 +8722,7 @@
         <v/>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A388" s="2"/>
       <c r="B388" s="3"/>
       <c r="C388" s="2"/>
@@ -8743,7 +8742,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A389" s="5"/>
       <c r="B389" s="6"/>
       <c r="C389" s="5"/>
@@ -8763,7 +8762,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A390" s="2"/>
       <c r="B390" s="3"/>
       <c r="C390" s="2"/>
@@ -8783,7 +8782,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A391" s="5"/>
       <c r="B391" s="6"/>
       <c r="C391" s="5"/>
@@ -8803,7 +8802,7 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A392" s="2"/>
       <c r="B392" s="3"/>
       <c r="C392" s="2"/>
@@ -8823,7 +8822,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A393" s="5"/>
       <c r="B393" s="6"/>
       <c r="C393" s="5"/>
@@ -8843,7 +8842,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A394" s="2"/>
       <c r="B394" s="3"/>
       <c r="C394" s="2"/>
@@ -8863,7 +8862,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A395" s="5"/>
       <c r="B395" s="6"/>
       <c r="C395" s="5"/>
@@ -8883,7 +8882,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A396" s="2"/>
       <c r="B396" s="3"/>
       <c r="C396" s="2"/>
@@ -8903,7 +8902,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A397" s="5"/>
       <c r="B397" s="6"/>
       <c r="C397" s="5"/>
@@ -8923,7 +8922,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A398" s="2"/>
       <c r="B398" s="3"/>
       <c r="C398" s="2"/>
@@ -8943,7 +8942,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A399" s="5"/>
       <c r="B399" s="6"/>
       <c r="C399" s="5"/>
@@ -8963,7 +8962,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A400" s="2"/>
       <c r="B400" s="3"/>
       <c r="C400" s="2"/>
@@ -8983,7 +8982,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A401" s="5"/>
       <c r="B401" s="6"/>
       <c r="C401" s="5"/>
@@ -9003,7 +9002,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A402" s="2"/>
       <c r="B402" s="3"/>
       <c r="C402" s="2"/>
@@ -9023,7 +9022,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A403" s="5"/>
       <c r="B403" s="6"/>
       <c r="C403" s="5"/>
@@ -9043,7 +9042,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A404" s="2"/>
       <c r="B404" s="3"/>
       <c r="C404" s="2"/>
@@ -9063,7 +9062,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A405" s="5"/>
       <c r="B405" s="6"/>
       <c r="C405" s="5"/>
@@ -9083,7 +9082,7 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A406" s="2"/>
       <c r="B406" s="3"/>
       <c r="C406" s="2"/>
@@ -9103,7 +9102,7 @@
         <v/>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A407" s="5"/>
       <c r="B407" s="6"/>
       <c r="C407" s="5"/>
@@ -9123,7 +9122,7 @@
         <v/>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A408" s="2"/>
       <c r="B408" s="3"/>
       <c r="C408" s="2"/>
@@ -9143,7 +9142,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A409" s="5"/>
       <c r="B409" s="6"/>
       <c r="C409" s="5"/>
@@ -9163,7 +9162,7 @@
         <v/>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A410" s="2"/>
       <c r="B410" s="3"/>
       <c r="C410" s="2"/>
@@ -9183,7 +9182,7 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A411" s="5"/>
       <c r="B411" s="6"/>
       <c r="C411" s="5"/>
@@ -9203,7 +9202,7 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A412" s="2"/>
       <c r="B412" s="3"/>
       <c r="C412" s="2"/>
@@ -9223,7 +9222,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A413" s="5"/>
       <c r="B413" s="6"/>
       <c r="C413" s="5"/>
@@ -9243,7 +9242,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A414" s="2"/>
       <c r="B414" s="3"/>
       <c r="C414" s="2"/>
@@ -9263,7 +9262,7 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A415" s="5"/>
       <c r="B415" s="6"/>
       <c r="C415" s="5"/>
@@ -9283,7 +9282,7 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A416" s="2"/>
       <c r="B416" s="3"/>
       <c r="C416" s="2"/>
@@ -9303,7 +9302,7 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A417" s="5"/>
       <c r="B417" s="6"/>
       <c r="C417" s="5"/>
@@ -9323,7 +9322,7 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A418" s="2"/>
       <c r="B418" s="3"/>
       <c r="C418" s="2"/>
@@ -9343,7 +9342,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A419" s="5"/>
       <c r="B419" s="6"/>
       <c r="C419" s="5"/>
@@ -9363,7 +9362,7 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A420" s="2"/>
       <c r="B420" s="3"/>
       <c r="C420" s="2"/>
@@ -9383,7 +9382,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A421" s="5"/>
       <c r="B421" s="6"/>
       <c r="C421" s="5"/>
@@ -9403,7 +9402,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A422" s="2"/>
       <c r="B422" s="3"/>
       <c r="C422" s="2"/>
@@ -9423,7 +9422,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A423" s="5"/>
       <c r="B423" s="6"/>
       <c r="C423" s="5"/>
@@ -9443,7 +9442,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A424" s="2"/>
       <c r="B424" s="3"/>
       <c r="C424" s="2"/>
@@ -9463,7 +9462,7 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A425" s="5"/>
       <c r="B425" s="6"/>
       <c r="C425" s="5"/>
@@ -9483,7 +9482,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A426" s="2"/>
       <c r="B426" s="3"/>
       <c r="C426" s="2"/>
@@ -9503,7 +9502,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A427" s="5"/>
       <c r="B427" s="6"/>
       <c r="C427" s="5"/>
@@ -9523,7 +9522,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A428" s="2"/>
       <c r="B428" s="3"/>
       <c r="C428" s="2"/>
@@ -9543,7 +9542,7 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A429" s="5"/>
       <c r="B429" s="6"/>
       <c r="C429" s="5"/>
@@ -9563,7 +9562,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A430" s="2"/>
       <c r="B430" s="3"/>
       <c r="C430" s="2"/>
@@ -9583,7 +9582,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A431" s="5"/>
       <c r="B431" s="6"/>
       <c r="C431" s="5"/>
@@ -9603,7 +9602,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A432" s="2"/>
       <c r="B432" s="3"/>
       <c r="C432" s="2"/>
@@ -9623,7 +9622,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A433" s="5"/>
       <c r="B433" s="6"/>
       <c r="C433" s="5"/>
@@ -9643,7 +9642,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A434" s="2"/>
       <c r="B434" s="3"/>
       <c r="C434" s="2"/>
@@ -9663,7 +9662,7 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A435" s="5"/>
       <c r="B435" s="6"/>
       <c r="C435" s="5"/>
@@ -9683,7 +9682,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A436" s="2"/>
       <c r="B436" s="3"/>
       <c r="C436" s="2"/>
@@ -9703,7 +9702,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A437" s="5"/>
       <c r="B437" s="6"/>
       <c r="C437" s="5"/>
@@ -9723,7 +9722,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A438" s="2"/>
       <c r="B438" s="3"/>
       <c r="C438" s="2"/>
@@ -9743,7 +9742,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A439" s="5"/>
       <c r="B439" s="6"/>
       <c r="C439" s="5"/>
@@ -9763,7 +9762,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A440" s="2"/>
       <c r="B440" s="3"/>
       <c r="C440" s="2"/>
@@ -9783,7 +9782,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A441" s="5"/>
       <c r="B441" s="6"/>
       <c r="C441" s="5"/>
@@ -9803,7 +9802,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A442" s="2"/>
       <c r="B442" s="3"/>
       <c r="C442" s="2"/>
@@ -9823,7 +9822,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A443" s="5"/>
       <c r="B443" s="6"/>
       <c r="C443" s="5"/>
@@ -9843,7 +9842,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A444" s="2"/>
       <c r="B444" s="3"/>
       <c r="C444" s="2"/>
@@ -9863,7 +9862,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A445" s="5"/>
       <c r="B445" s="6"/>
       <c r="C445" s="5"/>
@@ -9883,7 +9882,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A446" s="2"/>
       <c r="B446" s="3"/>
       <c r="C446" s="2"/>
@@ -9903,7 +9902,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A447" s="5"/>
       <c r="B447" s="6"/>
       <c r="C447" s="5"/>
@@ -9923,7 +9922,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A448" s="2"/>
       <c r="B448" s="3"/>
       <c r="C448" s="2"/>
@@ -9943,7 +9942,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A449" s="5"/>
       <c r="B449" s="6"/>
       <c r="C449" s="5"/>
@@ -9963,7 +9962,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A450" s="2"/>
       <c r="B450" s="3"/>
       <c r="C450" s="2"/>
@@ -9983,7 +9982,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A451" s="5"/>
       <c r="B451" s="6"/>
       <c r="C451" s="5"/>
@@ -10003,7 +10002,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A452" s="2"/>
       <c r="B452" s="3"/>
       <c r="C452" s="2"/>
@@ -10023,7 +10022,7 @@
         <v/>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A453" s="5"/>
       <c r="B453" s="6"/>
       <c r="C453" s="5"/>
@@ -10043,7 +10042,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A454" s="2"/>
       <c r="B454" s="3"/>
       <c r="C454" s="2"/>
@@ -10063,7 +10062,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A455" s="5"/>
       <c r="B455" s="6"/>
       <c r="C455" s="5"/>
@@ -10083,7 +10082,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A456" s="2"/>
       <c r="B456" s="3"/>
       <c r="C456" s="2"/>
@@ -10103,7 +10102,7 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A457" s="5"/>
       <c r="B457" s="6"/>
       <c r="C457" s="5"/>
@@ -10123,7 +10122,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A458" s="2"/>
       <c r="B458" s="3"/>
       <c r="C458" s="2"/>
@@ -10143,7 +10142,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A459" s="5"/>
       <c r="B459" s="6"/>
       <c r="C459" s="5"/>
@@ -10163,7 +10162,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A460" s="2"/>
       <c r="B460" s="3"/>
       <c r="C460" s="2"/>
@@ -10183,7 +10182,7 @@
         <v/>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A461" s="5"/>
       <c r="B461" s="6"/>
       <c r="C461" s="5"/>
@@ -10203,7 +10202,7 @@
         <v/>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A462" s="2"/>
       <c r="B462" s="3"/>
       <c r="C462" s="2"/>
@@ -10223,7 +10222,7 @@
         <v/>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A463" s="5"/>
       <c r="B463" s="6"/>
       <c r="C463" s="5"/>
@@ -10243,7 +10242,7 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A464" s="2"/>
       <c r="B464" s="3"/>
       <c r="C464" s="2"/>
@@ -10263,7 +10262,7 @@
         <v/>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A465" s="5"/>
       <c r="B465" s="6"/>
       <c r="C465" s="5"/>
@@ -10283,7 +10282,7 @@
         <v/>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A466" s="2"/>
       <c r="B466" s="3"/>
       <c r="C466" s="2"/>
@@ -10303,7 +10302,7 @@
         <v/>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A467" s="5"/>
       <c r="B467" s="6"/>
       <c r="C467" s="5"/>
@@ -10323,7 +10322,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A468" s="2"/>
       <c r="B468" s="3"/>
       <c r="C468" s="2"/>
@@ -10343,7 +10342,7 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A469" s="5"/>
       <c r="B469" s="6"/>
       <c r="C469" s="5"/>
@@ -10363,7 +10362,7 @@
         <v/>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A470" s="2"/>
       <c r="B470" s="3"/>
       <c r="C470" s="2"/>
@@ -10383,7 +10382,7 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A471" s="5"/>
       <c r="B471" s="6"/>
       <c r="C471" s="5"/>
@@ -10403,7 +10402,7 @@
         <v/>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A472" s="2"/>
       <c r="B472" s="3"/>
       <c r="C472" s="2"/>
@@ -10423,7 +10422,7 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A473" s="5"/>
       <c r="B473" s="6"/>
       <c r="C473" s="5"/>
@@ -10443,7 +10442,7 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A474" s="2"/>
       <c r="B474" s="3"/>
       <c r="C474" s="2"/>
@@ -10463,7 +10462,7 @@
         <v/>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A475" s="5"/>
       <c r="B475" s="6"/>
       <c r="C475" s="5"/>
@@ -10483,7 +10482,7 @@
         <v/>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A476" s="2"/>
       <c r="B476" s="3"/>
       <c r="C476" s="2"/>
@@ -10503,7 +10502,7 @@
         <v/>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A477" s="5"/>
       <c r="B477" s="6"/>
       <c r="C477" s="5"/>
@@ -10523,7 +10522,7 @@
         <v/>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A478" s="2"/>
       <c r="B478" s="3"/>
       <c r="C478" s="2"/>
@@ -10543,7 +10542,7 @@
         <v/>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A479" s="5"/>
       <c r="B479" s="6"/>
       <c r="C479" s="5"/>
@@ -10563,7 +10562,7 @@
         <v/>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A480" s="2"/>
       <c r="B480" s="3"/>
       <c r="C480" s="2"/>
@@ -10583,7 +10582,7 @@
         <v/>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A481" s="5"/>
       <c r="B481" s="6"/>
       <c r="C481" s="5"/>
@@ -10603,7 +10602,7 @@
         <v/>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A482" s="2"/>
       <c r="B482" s="3"/>
       <c r="C482" s="2"/>
@@ -10623,7 +10622,7 @@
         <v/>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A483" s="5"/>
       <c r="B483" s="6"/>
       <c r="C483" s="5"/>
@@ -10643,7 +10642,7 @@
         <v/>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A484" s="2"/>
       <c r="B484" s="3"/>
       <c r="C484" s="2"/>
@@ -10663,7 +10662,7 @@
         <v/>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A485" s="5"/>
       <c r="B485" s="6"/>
       <c r="C485" s="5"/>
@@ -10683,7 +10682,7 @@
         <v/>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A486" s="2"/>
       <c r="B486" s="3"/>
       <c r="C486" s="2"/>
@@ -10703,7 +10702,7 @@
         <v/>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A487" s="5"/>
       <c r="B487" s="6"/>
       <c r="C487" s="5"/>
@@ -10723,7 +10722,7 @@
         <v/>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A488" s="2"/>
       <c r="B488" s="3"/>
       <c r="C488" s="2"/>
@@ -10743,7 +10742,7 @@
         <v/>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A489" s="5"/>
       <c r="B489" s="6"/>
       <c r="C489" s="5"/>
@@ -10763,7 +10762,7 @@
         <v/>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A490" s="2"/>
       <c r="B490" s="3"/>
       <c r="C490" s="2"/>
@@ -10783,7 +10782,7 @@
         <v/>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A491" s="5"/>
       <c r="B491" s="6"/>
       <c r="C491" s="5"/>
@@ -10803,7 +10802,7 @@
         <v/>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A492" s="2"/>
       <c r="B492" s="3"/>
       <c r="C492" s="2"/>
@@ -10823,7 +10822,7 @@
         <v/>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A493" s="5"/>
       <c r="B493" s="6"/>
       <c r="C493" s="5"/>
@@ -10843,7 +10842,7 @@
         <v/>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A494" s="2"/>
       <c r="B494" s="3"/>
       <c r="C494" s="2"/>
@@ -10863,7 +10862,7 @@
         <v/>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A495" s="5"/>
       <c r="B495" s="6"/>
       <c r="C495" s="5"/>
@@ -10883,7 +10882,7 @@
         <v/>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A496" s="2"/>
       <c r="B496" s="3"/>
       <c r="C496" s="2"/>
@@ -10903,7 +10902,7 @@
         <v/>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A497" s="5"/>
       <c r="B497" s="6"/>
       <c r="C497" s="5"/>
@@ -10923,7 +10922,7 @@
         <v/>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A498" s="2"/>
       <c r="B498" s="3"/>
       <c r="C498" s="2"/>
@@ -10943,7 +10942,7 @@
         <v/>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A499" s="5"/>
       <c r="B499" s="6"/>
       <c r="C499" s="5"/>
@@ -10963,7 +10962,7 @@
         <v/>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A500" s="2"/>
       <c r="B500" s="3"/>
       <c r="C500" s="2"/>
@@ -10983,7 +10982,7 @@
         <v/>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A501" s="5"/>
       <c r="B501" s="6"/>
       <c r="C501" s="5"/>
@@ -11003,7 +11002,7 @@
         <v/>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A502" s="2"/>
       <c r="B502" s="3"/>
       <c r="C502" s="2"/>
@@ -11023,7 +11022,7 @@
         <v/>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A503" s="5"/>
       <c r="B503" s="6"/>
       <c r="C503" s="5"/>
@@ -11043,7 +11042,7 @@
         <v/>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A504" s="2"/>
       <c r="B504" s="3"/>
       <c r="C504" s="2"/>
@@ -11063,7 +11062,7 @@
         <v/>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A505" s="5"/>
       <c r="B505" s="6"/>
       <c r="C505" s="5"/>
@@ -11083,7 +11082,7 @@
         <v/>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A506" s="2"/>
       <c r="B506" s="3"/>
       <c r="C506" s="2"/>
@@ -11103,7 +11102,7 @@
         <v/>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A507" s="5"/>
       <c r="B507" s="6"/>
       <c r="C507" s="5"/>
@@ -11123,7 +11122,7 @@
         <v/>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A508" s="2"/>
       <c r="B508" s="3"/>
       <c r="C508" s="2"/>
@@ -11143,7 +11142,7 @@
         <v/>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A509" s="5"/>
       <c r="B509" s="6"/>
       <c r="C509" s="5"/>
@@ -11163,7 +11162,7 @@
         <v/>
       </c>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A510" s="2"/>
       <c r="B510" s="3"/>
       <c r="C510" s="2"/>
@@ -11183,7 +11182,7 @@
         <v/>
       </c>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A511" s="5"/>
       <c r="B511" s="6"/>
       <c r="C511" s="5"/>
@@ -11203,7 +11202,7 @@
         <v/>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A512" s="2"/>
       <c r="B512" s="3"/>
       <c r="C512" s="2"/>
@@ -11223,7 +11222,7 @@
         <v/>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A513" s="5"/>
       <c r="B513" s="6"/>
       <c r="C513" s="5"/>
@@ -11243,7 +11242,7 @@
         <v/>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A514" s="2"/>
       <c r="B514" s="3"/>
       <c r="C514" s="2"/>
@@ -11263,7 +11262,7 @@
         <v/>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A515" s="5"/>
       <c r="B515" s="6"/>
       <c r="C515" s="5"/>
@@ -11283,7 +11282,7 @@
         <v/>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A516" s="2"/>
       <c r="B516" s="3"/>
       <c r="C516" s="2"/>
@@ -11303,7 +11302,7 @@
         <v/>
       </c>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A517" s="5"/>
       <c r="B517" s="6"/>
       <c r="C517" s="5"/>
@@ -11323,7 +11322,7 @@
         <v/>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A518" s="2"/>
       <c r="B518" s="3"/>
       <c r="C518" s="2"/>
@@ -11343,7 +11342,7 @@
         <v/>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A519" s="5"/>
       <c r="B519" s="6"/>
       <c r="C519" s="5"/>
@@ -11363,7 +11362,7 @@
         <v/>
       </c>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A520" s="2"/>
       <c r="B520" s="3"/>
       <c r="C520" s="2"/>
@@ -11383,7 +11382,7 @@
         <v/>
       </c>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A521" s="5"/>
       <c r="B521" s="6"/>
       <c r="C521" s="5"/>
@@ -11403,7 +11402,7 @@
         <v/>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A522" s="2"/>
       <c r="B522" s="3"/>
       <c r="C522" s="2"/>
@@ -11423,7 +11422,7 @@
         <v/>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A523" s="5"/>
       <c r="B523" s="6"/>
       <c r="C523" s="5"/>
@@ -11443,7 +11442,7 @@
         <v/>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A524" s="2"/>
       <c r="B524" s="3"/>
       <c r="C524" s="2"/>
@@ -11463,7 +11462,7 @@
         <v/>
       </c>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A525" s="5"/>
       <c r="B525" s="6"/>
       <c r="C525" s="5"/>
@@ -11483,7 +11482,7 @@
         <v/>
       </c>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A526" s="2"/>
       <c r="B526" s="3"/>
       <c r="C526" s="2"/>
@@ -11503,7 +11502,7 @@
         <v/>
       </c>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A527" s="5"/>
       <c r="B527" s="6"/>
       <c r="C527" s="5"/>
@@ -11523,7 +11522,7 @@
         <v/>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A528" s="2"/>
       <c r="B528" s="3"/>
       <c r="C528" s="2"/>
@@ -11543,7 +11542,7 @@
         <v/>
       </c>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A529" s="5"/>
       <c r="B529" s="6"/>
       <c r="C529" s="5"/>
@@ -11563,7 +11562,7 @@
         <v/>
       </c>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A530" s="2"/>
       <c r="B530" s="3"/>
       <c r="C530" s="2"/>
@@ -11583,7 +11582,7 @@
         <v/>
       </c>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A531" s="5"/>
       <c r="B531" s="6"/>
       <c r="C531" s="5"/>
@@ -11603,7 +11602,7 @@
         <v/>
       </c>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A532" s="2"/>
       <c r="B532" s="3"/>
       <c r="C532" s="2"/>
@@ -11623,7 +11622,7 @@
         <v/>
       </c>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A533" s="5"/>
       <c r="B533" s="6"/>
       <c r="C533" s="5"/>
@@ -11643,7 +11642,7 @@
         <v/>
       </c>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A534" s="2"/>
       <c r="B534" s="3"/>
       <c r="C534" s="2"/>
@@ -11663,7 +11662,7 @@
         <v/>
       </c>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A535" s="5"/>
       <c r="B535" s="6"/>
       <c r="C535" s="5"/>
@@ -11683,7 +11682,7 @@
         <v/>
       </c>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A536" s="2"/>
       <c r="B536" s="3"/>
       <c r="C536" s="2"/>
@@ -11703,7 +11702,7 @@
         <v/>
       </c>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A537" s="5"/>
       <c r="B537" s="6"/>
       <c r="C537" s="5"/>
@@ -11723,7 +11722,7 @@
         <v/>
       </c>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A538" s="2"/>
       <c r="B538" s="3"/>
       <c r="C538" s="2"/>
@@ -11743,7 +11742,7 @@
         <v/>
       </c>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A539" s="5"/>
       <c r="B539" s="6"/>
       <c r="C539" s="5"/>
@@ -11763,7 +11762,7 @@
         <v/>
       </c>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A540" s="2"/>
       <c r="B540" s="3"/>
       <c r="C540" s="2"/>
@@ -11783,7 +11782,7 @@
         <v/>
       </c>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A541" s="5"/>
       <c r="B541" s="6"/>
       <c r="C541" s="5"/>
@@ -11803,7 +11802,7 @@
         <v/>
       </c>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A542" s="2"/>
       <c r="B542" s="3"/>
       <c r="C542" s="2"/>
@@ -11823,7 +11822,7 @@
         <v/>
       </c>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A543" s="5"/>
       <c r="B543" s="6"/>
       <c r="C543" s="5"/>
@@ -11843,7 +11842,7 @@
         <v/>
       </c>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A544" s="2"/>
       <c r="B544" s="3"/>
       <c r="C544" s="2"/>
@@ -11863,7 +11862,7 @@
         <v/>
       </c>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A545" s="5"/>
       <c r="B545" s="6"/>
       <c r="C545" s="5"/>
@@ -11883,7 +11882,7 @@
         <v/>
       </c>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A546" s="2"/>
       <c r="B546" s="3"/>
       <c r="C546" s="2"/>
@@ -11903,7 +11902,7 @@
         <v/>
       </c>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A547" s="5"/>
       <c r="B547" s="6"/>
       <c r="C547" s="5"/>
@@ -11923,7 +11922,7 @@
         <v/>
       </c>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A548" s="2"/>
       <c r="B548" s="3"/>
       <c r="C548" s="2"/>
@@ -11943,7 +11942,7 @@
         <v/>
       </c>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A549" s="5"/>
       <c r="B549" s="6"/>
       <c r="C549" s="5"/>
@@ -11963,7 +11962,7 @@
         <v/>
       </c>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A550" s="2"/>
       <c r="B550" s="3"/>
       <c r="C550" s="2"/>
@@ -11983,7 +11982,7 @@
         <v/>
       </c>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A551" s="5"/>
       <c r="B551" s="6"/>
       <c r="C551" s="5"/>
@@ -12003,7 +12002,7 @@
         <v/>
       </c>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A552" s="2"/>
       <c r="B552" s="3"/>
       <c r="C552" s="2"/>
@@ -12023,7 +12022,7 @@
         <v/>
       </c>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A553" s="5"/>
       <c r="B553" s="6"/>
       <c r="C553" s="5"/>
@@ -12043,7 +12042,7 @@
         <v/>
       </c>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A554" s="2"/>
       <c r="B554" s="3"/>
       <c r="C554" s="2"/>
@@ -12063,7 +12062,7 @@
         <v/>
       </c>
     </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A555" s="5"/>
       <c r="B555" s="6"/>
       <c r="C555" s="5"/>
@@ -12083,7 +12082,7 @@
         <v/>
       </c>
     </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A556" s="2"/>
       <c r="B556" s="3"/>
       <c r="C556" s="2"/>
@@ -12103,7 +12102,7 @@
         <v/>
       </c>
     </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A557" s="5"/>
       <c r="B557" s="6"/>
       <c r="C557" s="5"/>
@@ -12123,7 +12122,7 @@
         <v/>
       </c>
     </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A558" s="2"/>
       <c r="B558" s="3"/>
       <c r="C558" s="2"/>
@@ -12143,7 +12142,7 @@
         <v/>
       </c>
     </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A559" s="5"/>
       <c r="B559" s="6"/>
       <c r="C559" s="5"/>
@@ -12163,7 +12162,7 @@
         <v/>
       </c>
     </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A560" s="2"/>
       <c r="B560" s="3"/>
       <c r="C560" s="2"/>
@@ -12183,7 +12182,7 @@
         <v/>
       </c>
     </row>
-    <row r="561" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A561" s="5"/>
       <c r="B561" s="6"/>
       <c r="C561" s="5"/>
@@ -12203,7 +12202,7 @@
         <v/>
       </c>
     </row>
-    <row r="562" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A562" s="2"/>
       <c r="B562" s="3"/>
       <c r="C562" s="2"/>
@@ -12223,7 +12222,7 @@
         <v/>
       </c>
     </row>
-    <row r="563" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A563" s="5"/>
       <c r="B563" s="6"/>
       <c r="C563" s="5"/>
@@ -12243,7 +12242,7 @@
         <v/>
       </c>
     </row>
-    <row r="564" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A564" s="2"/>
       <c r="B564" s="3"/>
       <c r="C564" s="2"/>
@@ -12263,7 +12262,7 @@
         <v/>
       </c>
     </row>
-    <row r="565" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A565" s="5"/>
       <c r="B565" s="6"/>
       <c r="C565" s="5"/>
@@ -12283,7 +12282,7 @@
         <v/>
       </c>
     </row>
-    <row r="566" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A566" s="2"/>
       <c r="B566" s="3"/>
       <c r="C566" s="2"/>
@@ -12303,7 +12302,7 @@
         <v/>
       </c>
     </row>
-    <row r="567" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A567" s="5"/>
       <c r="B567" s="6"/>
       <c r="C567" s="5"/>
@@ -12323,7 +12322,7 @@
         <v/>
       </c>
     </row>
-    <row r="568" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A568" s="2"/>
       <c r="B568" s="3"/>
       <c r="C568" s="2"/>
@@ -12343,7 +12342,7 @@
         <v/>
       </c>
     </row>
-    <row r="569" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A569" s="5"/>
       <c r="B569" s="6"/>
       <c r="C569" s="5"/>
@@ -12363,7 +12362,7 @@
         <v/>
       </c>
     </row>
-    <row r="570" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A570" s="2"/>
       <c r="B570" s="3"/>
       <c r="C570" s="2"/>
@@ -12383,7 +12382,7 @@
         <v/>
       </c>
     </row>
-    <row r="571" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A571" s="5"/>
       <c r="B571" s="6"/>
       <c r="C571" s="5"/>
@@ -12403,7 +12402,7 @@
         <v/>
       </c>
     </row>
-    <row r="572" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A572" s="2"/>
       <c r="B572" s="3"/>
       <c r="C572" s="2"/>
@@ -12423,7 +12422,7 @@
         <v/>
       </c>
     </row>
-    <row r="573" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A573" s="5"/>
       <c r="B573" s="6"/>
       <c r="C573" s="5"/>
@@ -12443,7 +12442,7 @@
         <v/>
       </c>
     </row>
-    <row r="574" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A574" s="2"/>
       <c r="B574" s="3"/>
       <c r="C574" s="2"/>
@@ -12463,7 +12462,7 @@
         <v/>
       </c>
     </row>
-    <row r="575" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A575" s="5"/>
       <c r="B575" s="6"/>
       <c r="C575" s="5"/>
@@ -12483,7 +12482,7 @@
         <v/>
       </c>
     </row>
-    <row r="576" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A576" s="2"/>
       <c r="B576" s="3"/>
       <c r="C576" s="2"/>
@@ -12503,7 +12502,7 @@
         <v/>
       </c>
     </row>
-    <row r="577" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A577" s="5"/>
       <c r="B577" s="6"/>
       <c r="C577" s="5"/>
@@ -12523,7 +12522,7 @@
         <v/>
       </c>
     </row>
-    <row r="578" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A578" s="2"/>
       <c r="B578" s="3"/>
       <c r="C578" s="2"/>
@@ -12543,7 +12542,7 @@
         <v/>
       </c>
     </row>
-    <row r="579" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A579" s="5"/>
       <c r="B579" s="6"/>
       <c r="C579" s="5"/>
@@ -12563,7 +12562,7 @@
         <v/>
       </c>
     </row>
-    <row r="580" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A580" s="2"/>
       <c r="B580" s="3"/>
       <c r="C580" s="2"/>
@@ -12583,7 +12582,7 @@
         <v/>
       </c>
     </row>
-    <row r="581" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A581" s="5"/>
       <c r="B581" s="6"/>
       <c r="C581" s="5"/>
@@ -12603,7 +12602,7 @@
         <v/>
       </c>
     </row>
-    <row r="582" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A582" s="2"/>
       <c r="B582" s="3"/>
       <c r="C582" s="2"/>
@@ -12623,7 +12622,7 @@
         <v/>
       </c>
     </row>
-    <row r="583" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A583" s="5"/>
       <c r="B583" s="6"/>
       <c r="C583" s="5"/>
@@ -12643,7 +12642,7 @@
         <v/>
       </c>
     </row>
-    <row r="584" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A584" s="2"/>
       <c r="B584" s="3"/>
       <c r="C584" s="2"/>
@@ -12663,7 +12662,7 @@
         <v/>
       </c>
     </row>
-    <row r="585" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A585" s="5"/>
       <c r="B585" s="6"/>
       <c r="C585" s="5"/>
@@ -12683,7 +12682,7 @@
         <v/>
       </c>
     </row>
-    <row r="586" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A586" s="2"/>
       <c r="B586" s="3"/>
       <c r="C586" s="2"/>
@@ -12703,7 +12702,7 @@
         <v/>
       </c>
     </row>
-    <row r="587" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A587" s="5"/>
       <c r="B587" s="6"/>
       <c r="C587" s="5"/>
@@ -12723,7 +12722,7 @@
         <v/>
       </c>
     </row>
-    <row r="588" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A588" s="2"/>
       <c r="B588" s="3"/>
       <c r="C588" s="2"/>
@@ -12743,7 +12742,7 @@
         <v/>
       </c>
     </row>
-    <row r="589" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A589" s="5"/>
       <c r="B589" s="6"/>
       <c r="C589" s="5"/>
@@ -12763,7 +12762,7 @@
         <v/>
       </c>
     </row>
-    <row r="590" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A590" s="2"/>
       <c r="B590" s="3"/>
       <c r="C590" s="2"/>
@@ -12783,7 +12782,7 @@
         <v/>
       </c>
     </row>
-    <row r="591" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A591" s="5"/>
       <c r="B591" s="6"/>
       <c r="C591" s="5"/>
@@ -12803,7 +12802,7 @@
         <v/>
       </c>
     </row>
-    <row r="592" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A592" s="2"/>
       <c r="B592" s="3"/>
       <c r="C592" s="2"/>
@@ -12823,7 +12822,7 @@
         <v/>
       </c>
     </row>
-    <row r="593" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A593" s="5"/>
       <c r="B593" s="6"/>
       <c r="C593" s="5"/>
@@ -12843,7 +12842,7 @@
         <v/>
       </c>
     </row>
-    <row r="594" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A594" s="2"/>
       <c r="B594" s="3"/>
       <c r="C594" s="2"/>
@@ -12863,7 +12862,7 @@
         <v/>
       </c>
     </row>
-    <row r="595" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A595" s="5"/>
       <c r="B595" s="6"/>
       <c r="C595" s="5"/>
@@ -12883,7 +12882,7 @@
         <v/>
       </c>
     </row>
-    <row r="596" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A596" s="2"/>
       <c r="B596" s="3"/>
       <c r="C596" s="2"/>
@@ -12903,7 +12902,7 @@
         <v/>
       </c>
     </row>
-    <row r="597" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A597" s="5"/>
       <c r="B597" s="6"/>
       <c r="C597" s="5"/>
@@ -12923,7 +12922,7 @@
         <v/>
       </c>
     </row>
-    <row r="598" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A598" s="2"/>
       <c r="B598" s="3"/>
       <c r="C598" s="2"/>
@@ -12943,7 +12942,7 @@
         <v/>
       </c>
     </row>
-    <row r="599" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A599" s="5"/>
       <c r="B599" s="6"/>
       <c r="C599" s="5"/>
@@ -12963,7 +12962,7 @@
         <v/>
       </c>
     </row>
-    <row r="600" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A600" s="2"/>
       <c r="B600" s="3"/>
       <c r="C600" s="2"/>
@@ -12983,7 +12982,7 @@
         <v/>
       </c>
     </row>
-    <row r="601" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A601" s="5"/>
       <c r="B601" s="6"/>
       <c r="C601" s="5"/>
@@ -13003,7 +13002,7 @@
         <v/>
       </c>
     </row>
-    <row r="602" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A602" s="2"/>
       <c r="B602" s="3"/>
       <c r="C602" s="2"/>
@@ -13023,7 +13022,7 @@
         <v/>
       </c>
     </row>
-    <row r="603" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A603" s="5"/>
       <c r="B603" s="6"/>
       <c r="C603" s="5"/>
@@ -13043,7 +13042,7 @@
         <v/>
       </c>
     </row>
-    <row r="604" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="604" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A604" s="2"/>
       <c r="B604" s="3"/>
       <c r="C604" s="2"/>
@@ -13063,7 +13062,7 @@
         <v/>
       </c>
     </row>
-    <row r="605" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A605" s="5"/>
       <c r="B605" s="6"/>
       <c r="C605" s="5"/>
@@ -13083,7 +13082,7 @@
         <v/>
       </c>
     </row>
-    <row r="606" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A606" s="2"/>
       <c r="B606" s="3"/>
       <c r="C606" s="2"/>
@@ -13103,7 +13102,7 @@
         <v/>
       </c>
     </row>
-    <row r="607" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="607" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A607" s="5"/>
       <c r="B607" s="6"/>
       <c r="C607" s="5"/>
@@ -13123,7 +13122,7 @@
         <v/>
       </c>
     </row>
-    <row r="608" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A608" s="2"/>
       <c r="B608" s="3"/>
       <c r="C608" s="2"/>
@@ -13143,7 +13142,7 @@
         <v/>
       </c>
     </row>
-    <row r="609" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A609" s="5"/>
       <c r="B609" s="6"/>
       <c r="C609" s="5"/>
@@ -13163,7 +13162,7 @@
         <v/>
       </c>
     </row>
-    <row r="610" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A610" s="2"/>
       <c r="B610" s="3"/>
       <c r="C610" s="2"/>
@@ -13183,7 +13182,7 @@
         <v/>
       </c>
     </row>
-    <row r="611" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A611" s="5"/>
       <c r="B611" s="6"/>
       <c r="C611" s="5"/>
@@ -13203,7 +13202,7 @@
         <v/>
       </c>
     </row>
-    <row r="612" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A612" s="2"/>
       <c r="B612" s="3"/>
       <c r="C612" s="2"/>
@@ -13223,7 +13222,7 @@
         <v/>
       </c>
     </row>
-    <row r="613" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A613" s="5"/>
       <c r="B613" s="6"/>
       <c r="C613" s="5"/>
@@ -13243,7 +13242,7 @@
         <v/>
       </c>
     </row>
-    <row r="614" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A614" s="2"/>
       <c r="B614" s="3"/>
       <c r="C614" s="2"/>
@@ -13263,7 +13262,7 @@
         <v/>
       </c>
     </row>
-    <row r="615" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A615" s="5"/>
       <c r="B615" s="6"/>
       <c r="C615" s="5"/>
@@ -13283,7 +13282,7 @@
         <v/>
       </c>
     </row>
-    <row r="616" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A616" s="2"/>
       <c r="B616" s="3"/>
       <c r="C616" s="2"/>
@@ -13303,7 +13302,7 @@
         <v/>
       </c>
     </row>
-    <row r="617" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A617" s="5"/>
       <c r="B617" s="6"/>
       <c r="C617" s="5"/>
@@ -13323,7 +13322,7 @@
         <v/>
       </c>
     </row>
-    <row r="618" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A618" s="2"/>
       <c r="B618" s="3"/>
       <c r="C618" s="2"/>
@@ -13343,7 +13342,7 @@
         <v/>
       </c>
     </row>
-    <row r="619" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A619" s="5"/>
       <c r="B619" s="6"/>
       <c r="C619" s="5"/>
@@ -13363,7 +13362,7 @@
         <v/>
       </c>
     </row>
-    <row r="620" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A620" s="2"/>
       <c r="B620" s="3"/>
       <c r="C620" s="2"/>
@@ -13383,7 +13382,7 @@
         <v/>
       </c>
     </row>
-    <row r="621" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A621" s="5"/>
       <c r="B621" s="6"/>
       <c r="C621" s="5"/>
@@ -13403,7 +13402,7 @@
         <v/>
       </c>
     </row>
-    <row r="622" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A622" s="2"/>
       <c r="B622" s="3"/>
       <c r="C622" s="2"/>
@@ -13423,7 +13422,7 @@
         <v/>
       </c>
     </row>
-    <row r="623" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A623" s="5"/>
       <c r="B623" s="6"/>
       <c r="C623" s="5"/>
@@ -13443,7 +13442,7 @@
         <v/>
       </c>
     </row>
-    <row r="624" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A624" s="2"/>
       <c r="B624" s="3"/>
       <c r="C624" s="2"/>
@@ -13463,7 +13462,7 @@
         <v/>
       </c>
     </row>
-    <row r="625" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A625" s="5"/>
       <c r="B625" s="6"/>
       <c r="C625" s="5"/>
@@ -13483,7 +13482,7 @@
         <v/>
       </c>
     </row>
-    <row r="626" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A626" s="2"/>
       <c r="B626" s="3"/>
       <c r="C626" s="2"/>
@@ -13503,7 +13502,7 @@
         <v/>
       </c>
     </row>
-    <row r="627" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A627" s="5"/>
       <c r="B627" s="6"/>
       <c r="C627" s="5"/>
@@ -13523,7 +13522,7 @@
         <v/>
       </c>
     </row>
-    <row r="628" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A628" s="2"/>
       <c r="B628" s="3"/>
       <c r="C628" s="2"/>
@@ -13543,7 +13542,7 @@
         <v/>
       </c>
     </row>
-    <row r="629" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A629" s="5"/>
       <c r="B629" s="6"/>
       <c r="C629" s="5"/>
@@ -13563,7 +13562,7 @@
         <v/>
       </c>
     </row>
-    <row r="630" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A630" s="2"/>
       <c r="B630" s="3"/>
       <c r="C630" s="2"/>
@@ -13583,7 +13582,7 @@
         <v/>
       </c>
     </row>
-    <row r="631" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A631" s="5"/>
       <c r="B631" s="6"/>
       <c r="C631" s="5"/>
@@ -13603,7 +13602,7 @@
         <v/>
       </c>
     </row>
-    <row r="632" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A632" s="2"/>
       <c r="B632" s="3"/>
       <c r="C632" s="2"/>
@@ -13623,7 +13622,7 @@
         <v/>
       </c>
     </row>
-    <row r="633" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A633" s="5"/>
       <c r="B633" s="6"/>
       <c r="C633" s="5"/>
@@ -13643,7 +13642,7 @@
         <v/>
       </c>
     </row>
-    <row r="634" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="634" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A634" s="2"/>
       <c r="B634" s="3"/>
       <c r="C634" s="2"/>
@@ -13663,7 +13662,7 @@
         <v/>
       </c>
     </row>
-    <row r="635" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="635" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A635" s="5"/>
       <c r="B635" s="6"/>
       <c r="C635" s="5"/>
@@ -13683,7 +13682,7 @@
         <v/>
       </c>
     </row>
-    <row r="636" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="636" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A636" s="2"/>
       <c r="B636" s="3"/>
       <c r="C636" s="2"/>
@@ -13703,7 +13702,7 @@
         <v/>
       </c>
     </row>
-    <row r="637" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="637" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A637" s="5"/>
       <c r="B637" s="6"/>
       <c r="C637" s="5"/>
@@ -13723,7 +13722,7 @@
         <v/>
       </c>
     </row>
-    <row r="638" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A638" s="2"/>
       <c r="B638" s="3"/>
       <c r="C638" s="2"/>
@@ -13743,7 +13742,7 @@
         <v/>
       </c>
     </row>
-    <row r="639" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A639" s="5"/>
       <c r="B639" s="6"/>
       <c r="C639" s="5"/>
@@ -13763,7 +13762,7 @@
         <v/>
       </c>
     </row>
-    <row r="640" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="640" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A640" s="2"/>
       <c r="B640" s="3"/>
       <c r="C640" s="2"/>
@@ -13783,7 +13782,7 @@
         <v/>
       </c>
     </row>
-    <row r="641" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A641" s="5"/>
       <c r="B641" s="6"/>
       <c r="C641" s="5"/>
@@ -13803,7 +13802,7 @@
         <v/>
       </c>
     </row>
-    <row r="642" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A642" s="2"/>
       <c r="B642" s="3"/>
       <c r="C642" s="2"/>
@@ -13823,7 +13822,7 @@
         <v/>
       </c>
     </row>
-    <row r="643" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A643" s="5"/>
       <c r="B643" s="6"/>
       <c r="C643" s="5"/>
@@ -13843,7 +13842,7 @@
         <v/>
       </c>
     </row>
-    <row r="644" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="644" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A644" s="2"/>
       <c r="B644" s="3"/>
       <c r="C644" s="2"/>
@@ -13863,7 +13862,7 @@
         <v/>
       </c>
     </row>
-    <row r="645" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="645" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A645" s="5"/>
       <c r="B645" s="6"/>
       <c r="C645" s="5"/>
@@ -13883,7 +13882,7 @@
         <v/>
       </c>
     </row>
-    <row r="646" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="646" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A646" s="2"/>
       <c r="B646" s="3"/>
       <c r="C646" s="2"/>
@@ -13903,7 +13902,7 @@
         <v/>
       </c>
     </row>
-    <row r="647" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="647" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A647" s="5"/>
       <c r="B647" s="6"/>
       <c r="C647" s="5"/>
@@ -13923,7 +13922,7 @@
         <v/>
       </c>
     </row>
-    <row r="648" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A648" s="2"/>
       <c r="B648" s="3"/>
       <c r="C648" s="2"/>
@@ -13943,7 +13942,7 @@
         <v/>
       </c>
     </row>
-    <row r="649" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A649" s="5"/>
       <c r="B649" s="6"/>
       <c r="C649" s="5"/>
@@ -13963,7 +13962,7 @@
         <v/>
       </c>
     </row>
-    <row r="650" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="650" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A650" s="2"/>
       <c r="B650" s="3"/>
       <c r="C650" s="2"/>
@@ -13983,7 +13982,7 @@
         <v/>
       </c>
     </row>
-    <row r="651" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="651" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A651" s="5"/>
       <c r="B651" s="6"/>
       <c r="C651" s="5"/>
@@ -14003,7 +14002,7 @@
         <v/>
       </c>
     </row>
-    <row r="652" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A652" s="2"/>
       <c r="B652" s="3"/>
       <c r="C652" s="2"/>
@@ -14023,7 +14022,7 @@
         <v/>
       </c>
     </row>
-    <row r="653" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A653" s="5"/>
       <c r="B653" s="6"/>
       <c r="C653" s="5"/>
@@ -14043,7 +14042,7 @@
         <v/>
       </c>
     </row>
-    <row r="654" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="654" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A654" s="2"/>
       <c r="B654" s="3"/>
       <c r="C654" s="2"/>
@@ -14063,7 +14062,7 @@
         <v/>
       </c>
     </row>
-    <row r="655" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="655" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A655" s="5"/>
       <c r="B655" s="6"/>
       <c r="C655" s="5"/>
@@ -14083,7 +14082,7 @@
         <v/>
       </c>
     </row>
-    <row r="656" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="656" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A656" s="2"/>
       <c r="B656" s="3"/>
       <c r="C656" s="2"/>
@@ -14103,7 +14102,7 @@
         <v/>
       </c>
     </row>
-    <row r="657" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="657" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A657" s="5"/>
       <c r="B657" s="6"/>
       <c r="C657" s="5"/>
@@ -14123,7 +14122,7 @@
         <v/>
       </c>
     </row>
-    <row r="658" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="658" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A658" s="2"/>
       <c r="B658" s="3"/>
       <c r="C658" s="2"/>
@@ -14143,7 +14142,7 @@
         <v/>
       </c>
     </row>
-    <row r="659" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A659" s="5"/>
       <c r="B659" s="6"/>
       <c r="C659" s="5"/>
@@ -14163,7 +14162,7 @@
         <v/>
       </c>
     </row>
-    <row r="660" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="660" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A660" s="2"/>
       <c r="B660" s="3"/>
       <c r="C660" s="2"/>
@@ -14183,7 +14182,7 @@
         <v/>
       </c>
     </row>
-    <row r="661" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="661" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A661" s="5"/>
       <c r="B661" s="6"/>
       <c r="C661" s="5"/>
@@ -14203,7 +14202,7 @@
         <v/>
       </c>
     </row>
-    <row r="662" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="662" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A662" s="2"/>
       <c r="B662" s="3"/>
       <c r="C662" s="2"/>
@@ -14223,7 +14222,7 @@
         <v/>
       </c>
     </row>
-    <row r="663" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A663" s="5"/>
       <c r="B663" s="6"/>
       <c r="C663" s="5"/>
@@ -14243,7 +14242,7 @@
         <v/>
       </c>
     </row>
-    <row r="664" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="664" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A664" s="2"/>
       <c r="B664" s="3"/>
       <c r="C664" s="2"/>
@@ -14263,7 +14262,7 @@
         <v/>
       </c>
     </row>
-    <row r="665" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="665" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A665" s="5"/>
       <c r="B665" s="6"/>
       <c r="C665" s="5"/>
@@ -14283,7 +14282,7 @@
         <v/>
       </c>
     </row>
-    <row r="666" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="666" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A666" s="2"/>
       <c r="B666" s="3"/>
       <c r="C666" s="2"/>
@@ -14303,7 +14302,7 @@
         <v/>
       </c>
     </row>
-    <row r="667" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="667" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A667" s="5"/>
       <c r="B667" s="6"/>
       <c r="C667" s="5"/>
@@ -14323,7 +14322,7 @@
         <v/>
       </c>
     </row>
-    <row r="668" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="668" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A668" s="2"/>
       <c r="B668" s="3"/>
       <c r="C668" s="2"/>
@@ -14351,12 +14350,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/건설/통장내역 (농협) 다성이앤씨.xlsx
+++ b/건설/통장내역 (농협) 다성이앤씨.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>오세성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,10 +193,6 @@
     <t>이길우</t>
   </si>
   <si>
-    <t>엄마 차용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이지선</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,6 +266,30 @@
   </si>
   <si>
     <t>758장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법무사수임료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법무법인현율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정현욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수임료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형제기초건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마 차용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,7 +682,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M31" sqref="M31"/>
+      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -765,7 +785,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="6"/>
@@ -978,10 +998,10 @@
         <v>45265</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="E10" s="10">
         <v>16800000</v>
@@ -1008,10 +1028,10 @@
         <v>45265</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="E11" s="8">
         <v>16000000</v>
@@ -1038,7 +1058,7 @@
         <v>45265</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>29</v>
@@ -1068,7 +1088,7 @@
         <v>45265</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>30</v>
@@ -1098,7 +1118,7 @@
         <v>45265</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>30</v>
@@ -1156,7 +1176,7 @@
         <v>45265</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>32</v>
@@ -1420,13 +1440,13 @@
         <v>264000</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -1454,13 +1474,13 @@
         <v>220000</v>
       </c>
       <c r="G26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -1488,13 +1508,13 @@
         <v>308000</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -1512,7 +1532,7 @@
         <v>45265</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>44</v>
@@ -1524,13 +1544,13 @@
         <v>110000</v>
       </c>
       <c r="G28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -1544,11 +1564,21 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="B29" s="6">
+        <v>45271</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="8">
+        <v>2800000</v>
+      </c>
+      <c r="F29" s="8">
+        <v>0</v>
+      </c>
       <c r="G29" s="5"/>
       <c r="H29" s="6"/>
       <c r="I29" s="5"/>
@@ -1557,29 +1587,43 @@
       <c r="L29" s="6"/>
       <c r="M29" s="4"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="8" t="str">
+      <c r="O29" s="8">
         <f t="shared" si="0"/>
-        <v/>
+        <v>3850740</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="3"/>
+      <c r="B30" s="3">
+        <v>45271</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0</v>
+      </c>
+      <c r="F30" s="10">
+        <v>3300000</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I30" s="2"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="1"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="10" t="str">
+      <c r="O30" s="10">
         <f t="shared" si="0"/>
-        <v/>
+        <v>550740</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
